--- a/stock_historical_data/1wk/SKYGOLD.NS.xlsx
+++ b/stock_historical_data/1wk/SKYGOLD.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2058,7 +2147,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2535,7 +2651,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2588,7 +2707,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>2</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>2</v>
       </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>1</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,117 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1369</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1455.849975585938</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1290</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1455.849975585938</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1455.849975585938</v>
+      </c>
+      <c r="G78" t="n">
+        <v>70405</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I78" t="n">
+        <v>6</v>
+      </c>
+      <c r="J78" t="n">
+        <v>17</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>25</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1528.599975585938</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1679</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1512</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1638.5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1638.5</v>
+      </c>
+      <c r="G79" t="n">
+        <v>240500</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I79" t="n">
+        <v>6</v>
+      </c>
+      <c r="J79" t="n">
+        <v>24</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>26</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SKYGOLD.NS.xlsx
+++ b/stock_historical_data/1wk/SKYGOLD.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:R114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -4837,7 +4837,9 @@
       <c r="Q78" t="n">
         <v>2</v>
       </c>
-      <c r="R78" t="inlineStr"/>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4891,7 +4893,1775 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
-      <c r="R79" t="inlineStr"/>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B80" t="n">
+        <v>172.0399932861328</v>
+      </c>
+      <c r="C80" t="n">
+        <v>184.2899932861328</v>
+      </c>
+      <c r="D80" t="n">
+        <v>158.1649932861328</v>
+      </c>
+      <c r="E80" t="n">
+        <v>184.2899932861328</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>1336800</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I80" t="n">
+        <v>7</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>27</v>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B81" t="n">
+        <v>183</v>
+      </c>
+      <c r="C81" t="n">
+        <v>225</v>
+      </c>
+      <c r="D81" t="n">
+        <v>175.0749969482422</v>
+      </c>
+      <c r="E81" t="n">
+        <v>221.4600067138672</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>2020490</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I81" t="n">
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>8</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>28</v>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B82" t="n">
+        <v>221.3000030517578</v>
+      </c>
+      <c r="C82" t="n">
+        <v>221.3000030517578</v>
+      </c>
+      <c r="D82" t="n">
+        <v>180.3899993896484</v>
+      </c>
+      <c r="E82" t="n">
+        <v>199.3699951171875</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>1022100</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I82" t="n">
+        <v>7</v>
+      </c>
+      <c r="J82" t="n">
+        <v>15</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>29</v>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B83" t="n">
+        <v>204.8000030517578</v>
+      </c>
+      <c r="C83" t="n">
+        <v>244.25</v>
+      </c>
+      <c r="D83" t="n">
+        <v>191.1100006103516</v>
+      </c>
+      <c r="E83" t="n">
+        <v>230.0599975585938</v>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>1399750</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I83" t="n">
+        <v>7</v>
+      </c>
+      <c r="J83" t="n">
+        <v>22</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>30</v>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B84" t="n">
+        <v>230.8999938964844</v>
+      </c>
+      <c r="C84" t="n">
+        <v>236</v>
+      </c>
+      <c r="D84" t="n">
+        <v>186.4499969482422</v>
+      </c>
+      <c r="E84" t="n">
+        <v>204.3350067138672</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>2314720</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I84" t="n">
+        <v>7</v>
+      </c>
+      <c r="J84" t="n">
+        <v>29</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>31</v>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B85" t="n">
+        <v>195.5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>223.5249938964844</v>
+      </c>
+      <c r="D85" t="n">
+        <v>190</v>
+      </c>
+      <c r="E85" t="n">
+        <v>223.5249938964844</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>2732160</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I85" t="n">
+        <v>8</v>
+      </c>
+      <c r="J85" t="n">
+        <v>5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>32</v>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B86" t="n">
+        <v>234.6999969482422</v>
+      </c>
+      <c r="C86" t="n">
+        <v>258.7550048828125</v>
+      </c>
+      <c r="D86" t="n">
+        <v>234.6999969482422</v>
+      </c>
+      <c r="E86" t="n">
+        <v>239.9700012207031</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>2357960</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I86" t="n">
+        <v>8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>12</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>33</v>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B87" t="n">
+        <v>235</v>
+      </c>
+      <c r="C87" t="n">
+        <v>275</v>
+      </c>
+      <c r="D87" t="n">
+        <v>230</v>
+      </c>
+      <c r="E87" t="n">
+        <v>253.6950073242188</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>2304940</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I87" t="n">
+        <v>8</v>
+      </c>
+      <c r="J87" t="n">
+        <v>19</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>34</v>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B88" t="n">
+        <v>256.010009765625</v>
+      </c>
+      <c r="C88" t="n">
+        <v>273.8999938964844</v>
+      </c>
+      <c r="D88" t="n">
+        <v>254.8000030517578</v>
+      </c>
+      <c r="E88" t="n">
+        <v>260.6849975585938</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>1390700</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I88" t="n">
+        <v>8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>26</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>35</v>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B89" t="n">
+        <v>265</v>
+      </c>
+      <c r="C89" t="n">
+        <v>295</v>
+      </c>
+      <c r="D89" t="n">
+        <v>256</v>
+      </c>
+      <c r="E89" t="n">
+        <v>276.6950073242188</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>1666630</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>36</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B90" t="n">
+        <v>277</v>
+      </c>
+      <c r="C90" t="n">
+        <v>280</v>
+      </c>
+      <c r="D90" t="n">
+        <v>262.8599853515625</v>
+      </c>
+      <c r="E90" t="n">
+        <v>273.4949951171875</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>960940</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I90" t="n">
+        <v>9</v>
+      </c>
+      <c r="J90" t="n">
+        <v>9</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>37</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B91" t="n">
+        <v>278.8949890136719</v>
+      </c>
+      <c r="C91" t="n">
+        <v>278.8949890136719</v>
+      </c>
+      <c r="D91" t="n">
+        <v>247</v>
+      </c>
+      <c r="E91" t="n">
+        <v>249.4649963378906</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>1240330</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I91" t="n">
+        <v>9</v>
+      </c>
+      <c r="J91" t="n">
+        <v>16</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>38</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B92" t="n">
+        <v>250</v>
+      </c>
+      <c r="C92" t="n">
+        <v>271</v>
+      </c>
+      <c r="D92" t="n">
+        <v>241.5099945068359</v>
+      </c>
+      <c r="E92" t="n">
+        <v>257.2349853515625</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>2675700</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I92" t="n">
+        <v>9</v>
+      </c>
+      <c r="J92" t="n">
+        <v>23</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>39</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B93" t="n">
+        <v>257.2349853515625</v>
+      </c>
+      <c r="C93" t="n">
+        <v>274</v>
+      </c>
+      <c r="D93" t="n">
+        <v>251</v>
+      </c>
+      <c r="E93" t="n">
+        <v>270.6799926757812</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>1099360</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I93" t="n">
+        <v>9</v>
+      </c>
+      <c r="J93" t="n">
+        <v>30</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>40</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B94" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="C94" t="n">
+        <v>314.2999877929688</v>
+      </c>
+      <c r="D94" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="E94" t="n">
+        <v>303.6749877929688</v>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>2224920</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I94" t="n">
+        <v>10</v>
+      </c>
+      <c r="J94" t="n">
+        <v>7</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>41</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B95" t="n">
+        <v>303.6749877929688</v>
+      </c>
+      <c r="C95" t="n">
+        <v>327.2999877929688</v>
+      </c>
+      <c r="D95" t="n">
+        <v>290.1000061035156</v>
+      </c>
+      <c r="E95" t="n">
+        <v>318.1400146484375</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>1434350</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I95" t="n">
+        <v>10</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>42</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B96" t="n">
+        <v>322</v>
+      </c>
+      <c r="C96" t="n">
+        <v>368.5</v>
+      </c>
+      <c r="D96" t="n">
+        <v>315.135009765625</v>
+      </c>
+      <c r="E96" t="n">
+        <v>348.7049865722656</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>3968210</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I96" t="n">
+        <v>10</v>
+      </c>
+      <c r="J96" t="n">
+        <v>21</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>43</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B97" t="n">
+        <v>365.5</v>
+      </c>
+      <c r="C97" t="n">
+        <v>365.5</v>
+      </c>
+      <c r="D97" t="n">
+        <v>325</v>
+      </c>
+      <c r="E97" t="n">
+        <v>339.3699951171875</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>1598690</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I97" t="n">
+        <v>10</v>
+      </c>
+      <c r="J97" t="n">
+        <v>28</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>44</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B98" t="n">
+        <v>348.3999938964844</v>
+      </c>
+      <c r="C98" t="n">
+        <v>353</v>
+      </c>
+      <c r="D98" t="n">
+        <v>326.1050109863281</v>
+      </c>
+      <c r="E98" t="n">
+        <v>334.7049865722656</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>1199710</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I98" t="n">
+        <v>11</v>
+      </c>
+      <c r="J98" t="n">
+        <v>4</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>45</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B99" t="n">
+        <v>337.8999938964844</v>
+      </c>
+      <c r="C99" t="n">
+        <v>340</v>
+      </c>
+      <c r="D99" t="n">
+        <v>307.7000122070312</v>
+      </c>
+      <c r="E99" t="n">
+        <v>325.7099914550781</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>1200300</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I99" t="n">
+        <v>11</v>
+      </c>
+      <c r="J99" t="n">
+        <v>11</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>46</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B100" t="n">
+        <v>337.8999938964844</v>
+      </c>
+      <c r="C100" t="n">
+        <v>395.8900146484375</v>
+      </c>
+      <c r="D100" t="n">
+        <v>333.8550109863281</v>
+      </c>
+      <c r="E100" t="n">
+        <v>395.8599853515625</v>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>1703370</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I100" t="n">
+        <v>11</v>
+      </c>
+      <c r="J100" t="n">
+        <v>18</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>47</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B101" t="n">
+        <v>393</v>
+      </c>
+      <c r="C101" t="n">
+        <v>424.5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>361.1300048828125</v>
+      </c>
+      <c r="E101" t="n">
+        <v>385.4450073242188</v>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>2503400</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I101" t="n">
+        <v>11</v>
+      </c>
+      <c r="J101" t="n">
+        <v>25</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>48</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B102" t="n">
+        <v>392.3999938964844</v>
+      </c>
+      <c r="C102" t="n">
+        <v>444</v>
+      </c>
+      <c r="D102" t="n">
+        <v>374.2099914550781</v>
+      </c>
+      <c r="E102" t="n">
+        <v>412.6700134277344</v>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>2689910</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I102" t="n">
+        <v>12</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>49</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B103" t="n">
+        <v>425</v>
+      </c>
+      <c r="C103" t="n">
+        <v>467.5</v>
+      </c>
+      <c r="D103" t="n">
+        <v>410</v>
+      </c>
+      <c r="E103" t="n">
+        <v>443.1449890136719</v>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>2891410</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I103" t="n">
+        <v>12</v>
+      </c>
+      <c r="J103" t="n">
+        <v>9</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>50</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B104" t="n">
+        <v>465.2999877929688</v>
+      </c>
+      <c r="C104" t="n">
+        <v>488.5499877929688</v>
+      </c>
+      <c r="D104" t="n">
+        <v>418.8999938964844</v>
+      </c>
+      <c r="E104" t="n">
+        <v>418.8999938964844</v>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>1159919</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I104" t="n">
+        <v>12</v>
+      </c>
+      <c r="J104" t="n">
+        <v>16</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>51</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B105" t="n">
+        <v>398.5</v>
+      </c>
+      <c r="C105" t="n">
+        <v>439.7000122070312</v>
+      </c>
+      <c r="D105" t="n">
+        <v>387.5</v>
+      </c>
+      <c r="E105" t="n">
+        <v>412.5</v>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="n">
+        <v>2454473</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I105" t="n">
+        <v>12</v>
+      </c>
+      <c r="J105" t="n">
+        <v>23</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>52</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B106" t="n">
+        <v>412.5</v>
+      </c>
+      <c r="C106" t="n">
+        <v>415</v>
+      </c>
+      <c r="D106" t="n">
+        <v>385</v>
+      </c>
+      <c r="E106" t="n">
+        <v>390.2999877929688</v>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>1500489</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I106" t="n">
+        <v>12</v>
+      </c>
+      <c r="J106" t="n">
+        <v>30</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B107" t="n">
+        <v>392.9500122070312</v>
+      </c>
+      <c r="C107" t="n">
+        <v>400</v>
+      </c>
+      <c r="D107" t="n">
+        <v>360.1499938964844</v>
+      </c>
+      <c r="E107" t="n">
+        <v>366.6000061035156</v>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="n">
+        <v>2288544</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>6</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>2</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B108" t="n">
+        <v>351</v>
+      </c>
+      <c r="C108" t="n">
+        <v>389.7000122070312</v>
+      </c>
+      <c r="D108" t="n">
+        <v>330.8999938964844</v>
+      </c>
+      <c r="E108" t="n">
+        <v>367.25</v>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="n">
+        <v>2035641</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>13</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B109" t="n">
+        <v>367.25</v>
+      </c>
+      <c r="C109" t="n">
+        <v>371</v>
+      </c>
+      <c r="D109" t="n">
+        <v>330.2000122070312</v>
+      </c>
+      <c r="E109" t="n">
+        <v>336.2999877929688</v>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>1182233</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>20</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>4</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B110" t="n">
+        <v>321.4500122070312</v>
+      </c>
+      <c r="C110" t="n">
+        <v>337.0499877929688</v>
+      </c>
+      <c r="D110" t="n">
+        <v>292</v>
+      </c>
+      <c r="E110" t="n">
+        <v>336.8500061035156</v>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>3715730</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>27</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>5</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>2</v>
+      </c>
+      <c r="R110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B111" t="n">
+        <v>335.2000122070312</v>
+      </c>
+      <c r="C111" t="n">
+        <v>402.8500061035156</v>
+      </c>
+      <c r="D111" t="n">
+        <v>335.1499938964844</v>
+      </c>
+      <c r="E111" t="n">
+        <v>378</v>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>2214202</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2</v>
+      </c>
+      <c r="J111" t="n">
+        <v>3</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>6</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B112" t="n">
+        <v>376.9500122070312</v>
+      </c>
+      <c r="C112" t="n">
+        <v>388.7000122070312</v>
+      </c>
+      <c r="D112" t="n">
+        <v>325.25</v>
+      </c>
+      <c r="E112" t="n">
+        <v>366.75</v>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>1855631</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2</v>
+      </c>
+      <c r="J112" t="n">
+        <v>10</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>7</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B113" t="n">
+        <v>374</v>
+      </c>
+      <c r="C113" t="n">
+        <v>383</v>
+      </c>
+      <c r="D113" t="n">
+        <v>321.5</v>
+      </c>
+      <c r="E113" t="n">
+        <v>345.2999877929688</v>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>1258068</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2</v>
+      </c>
+      <c r="J113" t="n">
+        <v>17</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>8</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B114" t="n">
+        <v>340.0499877929688</v>
+      </c>
+      <c r="C114" t="n">
+        <v>352.5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>318.1000061035156</v>
+      </c>
+      <c r="E114" t="n">
+        <v>318.1000061035156</v>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>720402</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I114" t="n">
+        <v>2</v>
+      </c>
+      <c r="J114" t="n">
+        <v>24</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>9</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SKYGOLD.NS.xlsx
+++ b/stock_historical_data/1wk/SKYGOLD.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R114"/>
+  <dimension ref="A1:R123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5361,7 +5361,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
-      <c r="R89" t="inlineStr"/>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5413,7 +5415,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
-      <c r="R90" t="inlineStr"/>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5465,7 +5469,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
-      <c r="R91" t="inlineStr"/>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5517,7 +5523,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
-      <c r="R92" t="inlineStr"/>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5569,7 +5577,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
-      <c r="R93" t="inlineStr"/>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5621,7 +5631,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
-      <c r="R94" t="inlineStr"/>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5673,7 +5685,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
-      <c r="R95" t="inlineStr"/>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5725,7 +5739,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
-      <c r="R96" t="inlineStr"/>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5777,7 +5793,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
-      <c r="R97" t="inlineStr"/>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5829,7 +5847,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
-      <c r="R98" t="inlineStr"/>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5881,7 +5901,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
-      <c r="R99" t="inlineStr"/>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5933,7 +5955,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
-      <c r="R100" t="inlineStr"/>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5985,7 +6009,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
-      <c r="R101" t="inlineStr"/>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -6037,7 +6063,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
-      <c r="R102" t="inlineStr"/>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -6089,7 +6117,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
-      <c r="R103" t="inlineStr"/>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -6141,7 +6171,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
-      <c r="R104" t="inlineStr"/>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6193,7 +6225,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
-      <c r="R105" t="inlineStr"/>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6245,7 +6279,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
-      <c r="R106" t="inlineStr"/>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6297,7 +6333,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
-      <c r="R107" t="inlineStr"/>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6349,7 +6387,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
-      <c r="R108" t="inlineStr"/>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6401,7 +6441,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
-      <c r="R109" t="inlineStr"/>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6445,7 +6487,7 @@
         <v>5</v>
       </c>
       <c r="O110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P110" t="n">
         <v>0</v>
@@ -6453,7 +6495,9 @@
       <c r="Q110" t="n">
         <v>2</v>
       </c>
-      <c r="R110" t="inlineStr"/>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6505,7 +6549,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
-      <c r="R111" t="inlineStr"/>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6557,7 +6603,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
-      <c r="R112" t="inlineStr"/>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6609,7 +6657,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
-      <c r="R113" t="inlineStr"/>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6661,7 +6711,477 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
-      <c r="R114" t="inlineStr"/>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B115" t="n">
+        <v>308.2999877929688</v>
+      </c>
+      <c r="C115" t="n">
+        <v>385.5</v>
+      </c>
+      <c r="D115" t="n">
+        <v>302.2000122070312</v>
+      </c>
+      <c r="E115" t="n">
+        <v>376.2000122070312</v>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>1592108</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3</v>
+      </c>
+      <c r="J115" t="n">
+        <v>3</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>10</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B116" t="n">
+        <v>378.6000061035156</v>
+      </c>
+      <c r="C116" t="n">
+        <v>384</v>
+      </c>
+      <c r="D116" t="n">
+        <v>331</v>
+      </c>
+      <c r="E116" t="n">
+        <v>335.6499938964844</v>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>911328</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3</v>
+      </c>
+      <c r="J116" t="n">
+        <v>10</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>11</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>1</v>
+      </c>
+      <c r="R116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B117" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="C117" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="D117" t="n">
+        <v>318.8999938964844</v>
+      </c>
+      <c r="E117" t="n">
+        <v>334.9500122070312</v>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1335143</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3</v>
+      </c>
+      <c r="J117" t="n">
+        <v>17</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>12</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B118" t="n">
+        <v>335</v>
+      </c>
+      <c r="C118" t="n">
+        <v>346</v>
+      </c>
+      <c r="D118" t="n">
+        <v>310</v>
+      </c>
+      <c r="E118" t="n">
+        <v>321.5499877929688</v>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>1260982</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3</v>
+      </c>
+      <c r="J118" t="n">
+        <v>24</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>13</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B119" t="n">
+        <v>321.5499877929688</v>
+      </c>
+      <c r="C119" t="n">
+        <v>349.9500122070312</v>
+      </c>
+      <c r="D119" t="n">
+        <v>315</v>
+      </c>
+      <c r="E119" t="n">
+        <v>327.6000061035156</v>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="n">
+        <v>1093448</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I119" t="n">
+        <v>3</v>
+      </c>
+      <c r="J119" t="n">
+        <v>31</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>14</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B120" t="n">
+        <v>311.25</v>
+      </c>
+      <c r="C120" t="n">
+        <v>321</v>
+      </c>
+      <c r="D120" t="n">
+        <v>297</v>
+      </c>
+      <c r="E120" t="n">
+        <v>319.9500122070312</v>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="n">
+        <v>943002</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I120" t="n">
+        <v>4</v>
+      </c>
+      <c r="J120" t="n">
+        <v>7</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>15</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B121" t="n">
+        <v>319.9500122070312</v>
+      </c>
+      <c r="C121" t="n">
+        <v>352.6499938964844</v>
+      </c>
+      <c r="D121" t="n">
+        <v>319.9500122070312</v>
+      </c>
+      <c r="E121" t="n">
+        <v>351</v>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="n">
+        <v>3414101</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I121" t="n">
+        <v>4</v>
+      </c>
+      <c r="J121" t="n">
+        <v>14</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>16</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B122" t="n">
+        <v>359.5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>366.7999877929688</v>
+      </c>
+      <c r="D122" t="n">
+        <v>307.1000061035156</v>
+      </c>
+      <c r="E122" t="n">
+        <v>315.2999877929688</v>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="n">
+        <v>3069737</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I122" t="n">
+        <v>4</v>
+      </c>
+      <c r="J122" t="n">
+        <v>21</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>17</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B123" t="n">
+        <v>311.1000061035156</v>
+      </c>
+      <c r="C123" t="n">
+        <v>319.8999938964844</v>
+      </c>
+      <c r="D123" t="n">
+        <v>301</v>
+      </c>
+      <c r="E123" t="n">
+        <v>311.7000122070312</v>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="n">
+        <v>876851</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I123" t="n">
+        <v>4</v>
+      </c>
+      <c r="J123" t="n">
+        <v>28</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>18</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R123" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
